--- a/Water recipes.xlsx
+++ b/Water recipes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Sync\work\MIT Graduate Work\Research\Radium Sorption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="3555" windowWidth="20355" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="4905" yWindow="3555" windowWidth="20355" windowHeight="16440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GW Recipe" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="297">
   <si>
     <t>Aggregate Study</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>mM NaHCO3</t>
+  </si>
+  <si>
+    <t>Ionic Strength</t>
   </si>
 </sst>
 </file>
@@ -955,12 +958,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1352,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1508,6 +1513,10 @@
       </c>
       <c r="L13" t="s">
         <v>18</v>
+      </c>
+      <c r="O13">
+        <f>0.5*(P5+P6+P11+P12+4*(P7+P8+P10))</f>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3032,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3041,6 +3050,7 @@
     <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3449,6 +3459,13 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
+      <c r="L15" t="s">
+        <v>296</v>
+      </c>
+      <c r="M15">
+        <f>0.5*SUM(M14,M13,M12,M11,M9,M4,M3)+4*SUM(M6,M7,M8,M10)+9*M5</f>
+        <v>883.77500000000009</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
